--- a/msg_sql/监控/统计HiveQL/tables.xlsx
+++ b/msg_sql/监控/统计HiveQL/tables.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,27 @@
   <si>
     <t>邮件主题</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adl_msg_industry_phone_ft</t>
+  </si>
+  <si>
+    <t>adl_msg_industry_sms_ft</t>
+  </si>
+  <si>
+    <t>adl_msg_phone_ft</t>
+  </si>
+  <si>
+    <t>adl_msg_sms_ft</t>
+  </si>
+  <si>
+    <t>adl_msg_sms_phone_ft</t>
+  </si>
+  <si>
+    <t>adl_msg_type_phone_ft</t>
+  </si>
+  <si>
+    <t>adl_msg_type_sms_ft</t>
   </si>
 </sst>
 </file>
@@ -460,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -471,12 +492,13 @@
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.875" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="5.25" customWidth="1"/>
+    <col min="6" max="6" width="29.875" customWidth="1"/>
+    <col min="7" max="7" width="28.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,8 +514,11 @@
       <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -506,8 +531,11 @@
       <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -526,8 +554,11 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -543,8 +574,11 @@
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -560,8 +594,11 @@
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -577,8 +614,11 @@
       <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -594,13 +634,16 @@
       <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
